--- a/Data/EC/NIT-9000325185.xlsx
+++ b/Data/EC/NIT-9000325185.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85D24D2C-F331-45BE-AB84-2B77CEC4327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{951FC7A2-E74C-44F5-942D-FC0DEDD3FA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{64568BA5-6391-4A5E-B81C-BC48BD9574B6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DAAEC194-E70B-475A-8B5F-AC0CDE18BC46}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="87">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,217 +65,205 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1042423234</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS MEJIA DIAZ</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1063284698</t>
+  </si>
+  <si>
+    <t>CARMEN ELENA SERRANO CASTILLO</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>73207162</t>
+  </si>
+  <si>
+    <t>GILBERTO DEL CARMEN LEON PEREZ</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>114337536</t>
+  </si>
+  <si>
+    <t>JUAN DAVID ROCA HERRERA</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1051416880</t>
+  </si>
+  <si>
+    <t>ANDRES DE JESUS PARRA MENDOZA</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>73582674</t>
+  </si>
+  <si>
+    <t>JAIME ANTONIO TATIS CABARCAS</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1047443658</t>
+  </si>
+  <si>
+    <t>NELLIS DEL CARMEN ZABALA ORTEGA</t>
+  </si>
+  <si>
+    <t>1047371111</t>
+  </si>
+  <si>
+    <t>JHANDER ENRIQUE CONEO RAMIREZ</t>
+  </si>
+  <si>
+    <t>1070918855</t>
+  </si>
+  <si>
+    <t>CIRO ANTONIO VARGAS HURTADO</t>
+  </si>
+  <si>
     <t>3976221</t>
   </si>
   <si>
     <t>MISAEL CONEO BASSA</t>
   </si>
   <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>9104688</t>
+  </si>
+  <si>
+    <t>REINALDO ESCUDERO SABOGAL</t>
+  </si>
+  <si>
+    <t>45525706</t>
+  </si>
+  <si>
+    <t>CELIA MARGARITA CONEO RAMIREZ</t>
+  </si>
+  <si>
+    <t>1143393214</t>
+  </si>
+  <si>
+    <t>MARIA JOSE MARTINEZ VASQUEZ</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>45558500</t>
+  </si>
+  <si>
+    <t>JOYCE VANESSA MARRUGO ANILLO</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
     <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>9104688</t>
-  </si>
-  <si>
-    <t>REINALDO ESCUDERO SABOGAL</t>
-  </si>
-  <si>
-    <t>73582674</t>
-  </si>
-  <si>
-    <t>JAIME ANTONIO TATIS CABARCAS</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>45525706</t>
-  </si>
-  <si>
-    <t>CELIA MARGARITA CONEO RAMIREZ</t>
-  </si>
-  <si>
-    <t>73207162</t>
-  </si>
-  <si>
-    <t>GILBERTO DEL CARMEN LEON PEREZ</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1047443658</t>
-  </si>
-  <si>
-    <t>NELLIS DEL CARMEN ZABALA ORTEGA</t>
-  </si>
-  <si>
-    <t>1047371111</t>
-  </si>
-  <si>
-    <t>JHANDER ENRIQUE CONEO RAMIREZ</t>
-  </si>
-  <si>
-    <t>1042423234</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS MEJIA DIAZ</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1070918855</t>
-  </si>
-  <si>
-    <t>CIRO ANTONIO VARGAS HURTADO</t>
-  </si>
-  <si>
-    <t>45558500</t>
-  </si>
-  <si>
-    <t>JOYCE VANESSA MARRUGO ANILLO</t>
-  </si>
-  <si>
-    <t>1049931093</t>
-  </si>
-  <si>
-    <t>JAMIR DEL CARMEN MURILLO LOPEZ</t>
-  </si>
-  <si>
-    <t>1143393214</t>
-  </si>
-  <si>
-    <t>MARIA JOSE MARTINEZ VASQUEZ</t>
-  </si>
-  <si>
-    <t>1063284698</t>
-  </si>
-  <si>
-    <t>CARMEN ELENA SERRANO CASTILLO</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1050965966</t>
-  </si>
-  <si>
-    <t>CESAR AUGUSTO MARRUGO GUARDO</t>
-  </si>
-  <si>
-    <t>114337536</t>
-  </si>
-  <si>
-    <t>JUAN DAVID ROCA HERRERA</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1051416880</t>
-  </si>
-  <si>
-    <t>ANDRES DE JESUS PARRA MENDOZA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -374,7 +362,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -387,9 +377,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -589,23 +577,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -633,10 +621,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -689,7 +677,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AFB0B3E-DEB5-E89A-FF7A-719DFF9BB36A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEE6C293-86EF-2C1D-797F-A2AF5297D200}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1040,8 +1028,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8CE50A-199F-4528-95A6-14608D172606}">
-  <dimension ref="B2:J139"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2561C395-AA87-46A4-92F8-D1CB612210A2}">
+  <dimension ref="B2:J123"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1065,7 +1053,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1110,7 +1098,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1142,12 +1130,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>5688805</v>
+        <v>5106191</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1158,14 +1146,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C13" s="5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F13" s="5">
         <v>39</v>
@@ -1195,13 +1183,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1218,10 +1206,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>20979</v>
+        <v>1067</v>
       </c>
       <c r="G16" s="18">
-        <v>828116</v>
+        <v>800000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1232,19 +1220,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>33125</v>
+        <v>1600</v>
       </c>
       <c r="G17" s="18">
-        <v>828116</v>
+        <v>1200000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1255,19 +1243,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F18" s="18">
-        <v>33125</v>
+        <v>2667</v>
       </c>
       <c r="G18" s="18">
-        <v>828116</v>
+        <v>2000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1278,19 +1266,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F19" s="18">
-        <v>33125</v>
+        <v>80000</v>
       </c>
       <c r="G19" s="18">
-        <v>828116</v>
+        <v>2000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1301,19 +1289,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F20" s="18">
-        <v>33125</v>
+        <v>80000</v>
       </c>
       <c r="G20" s="18">
-        <v>828116</v>
+        <v>2000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1324,19 +1312,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F21" s="18">
-        <v>33125</v>
+        <v>80000</v>
       </c>
       <c r="G21" s="18">
-        <v>828116</v>
+        <v>2000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1347,19 +1335,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F22" s="18">
-        <v>33125</v>
+        <v>80000</v>
       </c>
       <c r="G22" s="18">
-        <v>828116</v>
+        <v>2000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1370,19 +1358,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F23" s="18">
-        <v>33125</v>
+        <v>80000</v>
       </c>
       <c r="G23" s="18">
-        <v>828116</v>
+        <v>2000000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1393,19 +1381,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F24" s="18">
-        <v>20979</v>
+        <v>80000</v>
       </c>
       <c r="G24" s="18">
-        <v>828116</v>
+        <v>2000000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1416,19 +1404,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F25" s="18">
-        <v>33125</v>
+        <v>80000</v>
       </c>
       <c r="G25" s="18">
-        <v>828116</v>
+        <v>2000000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1439,19 +1427,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F26" s="18">
-        <v>33125</v>
+        <v>80000</v>
       </c>
       <c r="G26" s="18">
-        <v>828116</v>
+        <v>2000000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1462,19 +1450,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F27" s="18">
-        <v>33125</v>
+        <v>80000</v>
       </c>
       <c r="G27" s="18">
-        <v>828116</v>
+        <v>2000000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1485,19 +1473,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F28" s="18">
-        <v>33125</v>
+        <v>80000</v>
       </c>
       <c r="G28" s="18">
-        <v>828116</v>
+        <v>2000000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1508,19 +1496,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F29" s="18">
-        <v>33125</v>
+        <v>80000</v>
       </c>
       <c r="G29" s="18">
-        <v>828116</v>
+        <v>2000000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1531,19 +1519,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F30" s="18">
-        <v>33125</v>
+        <v>80000</v>
       </c>
       <c r="G30" s="18">
-        <v>828116</v>
+        <v>2000000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1554,19 +1542,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F31" s="18">
-        <v>33125</v>
+        <v>80000</v>
       </c>
       <c r="G31" s="18">
-        <v>828116</v>
+        <v>2000000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1577,19 +1565,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F32" s="18">
-        <v>27360</v>
+        <v>80000</v>
       </c>
       <c r="G32" s="18">
-        <v>1080000</v>
+        <v>2000000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1600,19 +1588,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F33" s="18">
-        <v>43200</v>
+        <v>80000</v>
       </c>
       <c r="G33" s="18">
-        <v>1080000</v>
+        <v>2000000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1623,19 +1611,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F34" s="18">
-        <v>43200</v>
+        <v>80000</v>
       </c>
       <c r="G34" s="18">
-        <v>1080000</v>
+        <v>2000000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1646,19 +1634,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F35" s="18">
-        <v>43200</v>
+        <v>80000</v>
       </c>
       <c r="G35" s="18">
-        <v>1080000</v>
+        <v>2000000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1669,19 +1657,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F36" s="18">
-        <v>43200</v>
+        <v>80000</v>
       </c>
       <c r="G36" s="18">
-        <v>1080000</v>
+        <v>2000000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1692,19 +1680,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F37" s="18">
-        <v>43200</v>
+        <v>16000</v>
       </c>
       <c r="G37" s="18">
-        <v>1080000</v>
+        <v>828116</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1715,19 +1703,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F38" s="18">
-        <v>43200</v>
+        <v>80000</v>
       </c>
       <c r="G38" s="18">
-        <v>1080000</v>
+        <v>2000000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1738,19 +1726,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F39" s="18">
-        <v>43200</v>
+        <v>80000</v>
       </c>
       <c r="G39" s="18">
-        <v>1080000</v>
+        <v>2000000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1761,19 +1749,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F40" s="18">
-        <v>43200</v>
+        <v>80000</v>
       </c>
       <c r="G40" s="18">
-        <v>1080000</v>
+        <v>2000000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1784,19 +1772,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F41" s="18">
-        <v>20979</v>
+        <v>80000</v>
       </c>
       <c r="G41" s="18">
-        <v>828116</v>
+        <v>2000000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1807,19 +1795,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F42" s="18">
-        <v>33125</v>
+        <v>80000</v>
       </c>
       <c r="G42" s="18">
-        <v>828116</v>
+        <v>2000000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1830,19 +1818,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F43" s="18">
-        <v>33125</v>
+        <v>80000</v>
       </c>
       <c r="G43" s="18">
-        <v>828116</v>
+        <v>2000000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1853,19 +1841,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="F44" s="18">
-        <v>33125</v>
+        <v>80000</v>
       </c>
       <c r="G44" s="18">
-        <v>828116</v>
+        <v>2000000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1876,19 +1864,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="F45" s="18">
-        <v>33125</v>
+        <v>80000</v>
       </c>
       <c r="G45" s="18">
-        <v>828116</v>
+        <v>2000000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1899,19 +1887,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="F46" s="18">
-        <v>33125</v>
+        <v>80000</v>
       </c>
       <c r="G46" s="18">
-        <v>828116</v>
+        <v>2000000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1922,19 +1910,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="F47" s="18">
-        <v>33125</v>
+        <v>80000</v>
       </c>
       <c r="G47" s="18">
-        <v>828116</v>
+        <v>2000000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1945,19 +1933,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="F48" s="18">
-        <v>33125</v>
+        <v>43200</v>
       </c>
       <c r="G48" s="18">
-        <v>828116</v>
+        <v>1080000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1968,19 +1956,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="F49" s="18">
-        <v>2667</v>
+        <v>48000</v>
       </c>
       <c r="G49" s="18">
-        <v>2000000</v>
+        <v>1200000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1991,19 +1979,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="F50" s="18">
-        <v>48000</v>
+        <v>33125</v>
       </c>
       <c r="G50" s="18">
-        <v>1200000</v>
+        <v>828116</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2014,19 +2002,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F51" s="18">
-        <v>20979</v>
+        <v>43200</v>
       </c>
       <c r="G51" s="18">
-        <v>828116</v>
+        <v>1080000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2037,19 +2025,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="F52" s="18">
-        <v>33125</v>
+        <v>80000</v>
       </c>
       <c r="G52" s="18">
-        <v>828116</v>
+        <v>2000000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2060,13 +2048,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="F53" s="18">
         <v>33125</v>
@@ -2083,13 +2071,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="F54" s="18">
         <v>33125</v>
@@ -2106,19 +2094,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F55" s="18">
-        <v>33125</v>
+        <v>43200</v>
       </c>
       <c r="G55" s="18">
-        <v>828116</v>
+        <v>1080000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2129,13 +2117,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="F56" s="18">
         <v>33125</v>
@@ -2152,13 +2140,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="F57" s="18">
         <v>33125</v>
@@ -2175,19 +2163,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="F58" s="18">
-        <v>33125</v>
+        <v>43200</v>
       </c>
       <c r="G58" s="18">
-        <v>828116</v>
+        <v>1080000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2198,19 +2186,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F59" s="18">
-        <v>33125</v>
+        <v>48000</v>
       </c>
       <c r="G59" s="18">
-        <v>828116</v>
+        <v>1200000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2221,19 +2209,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F60" s="18">
-        <v>1067</v>
+        <v>80000</v>
       </c>
       <c r="G60" s="18">
-        <v>800000</v>
+        <v>2000000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2244,19 +2232,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="F61" s="18">
-        <v>27360</v>
+        <v>33125</v>
       </c>
       <c r="G61" s="18">
-        <v>1080000</v>
+        <v>828116</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2267,19 +2255,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F62" s="18">
-        <v>43200</v>
+        <v>33125</v>
       </c>
       <c r="G62" s="18">
-        <v>1080000</v>
+        <v>828116</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2290,13 +2278,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F63" s="18">
         <v>43200</v>
@@ -2313,19 +2301,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="F64" s="18">
-        <v>43200</v>
+        <v>33125</v>
       </c>
       <c r="G64" s="18">
-        <v>1080000</v>
+        <v>828116</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2336,19 +2324,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="F65" s="18">
-        <v>43200</v>
+        <v>33125</v>
       </c>
       <c r="G65" s="18">
-        <v>1080000</v>
+        <v>828116</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2359,13 +2347,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="F66" s="18">
         <v>43200</v>
@@ -2382,19 +2370,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="F67" s="18">
-        <v>43200</v>
+        <v>33125</v>
       </c>
       <c r="G67" s="18">
-        <v>1080000</v>
+        <v>828116</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2405,19 +2393,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="F68" s="18">
-        <v>43200</v>
+        <v>48000</v>
       </c>
       <c r="G68" s="18">
-        <v>1080000</v>
+        <v>1200000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2428,19 +2416,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="F69" s="18">
-        <v>43200</v>
+        <v>80000</v>
       </c>
       <c r="G69" s="18">
-        <v>1080000</v>
+        <v>2000000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2451,19 +2439,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="F70" s="18">
-        <v>20979</v>
+        <v>33125</v>
       </c>
       <c r="G70" s="18">
-        <v>1200000</v>
+        <v>828116</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2474,19 +2462,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="F71" s="18">
         <v>33125</v>
       </c>
       <c r="G71" s="18">
-        <v>1200000</v>
+        <v>828116</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2497,19 +2485,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F72" s="18">
-        <v>33125</v>
+        <v>43200</v>
       </c>
       <c r="G72" s="18">
-        <v>1200000</v>
+        <v>1080000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2520,19 +2508,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="F73" s="18">
         <v>33125</v>
       </c>
       <c r="G73" s="18">
-        <v>1200000</v>
+        <v>828116</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2543,19 +2531,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="F74" s="18">
         <v>33125</v>
       </c>
       <c r="G74" s="18">
-        <v>1200000</v>
+        <v>828116</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2566,19 +2554,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="F75" s="18">
-        <v>33125</v>
+        <v>43200</v>
       </c>
       <c r="G75" s="18">
-        <v>1200000</v>
+        <v>1080000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2589,19 +2577,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="F76" s="18">
         <v>33125</v>
       </c>
       <c r="G76" s="18">
-        <v>1200000</v>
+        <v>828116</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2612,19 +2600,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="F77" s="18">
-        <v>27360</v>
+        <v>80000</v>
       </c>
       <c r="G77" s="18">
-        <v>1080000</v>
+        <v>2000000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2635,19 +2623,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="F78" s="18">
-        <v>43200</v>
+        <v>33125</v>
       </c>
       <c r="G78" s="18">
-        <v>1080000</v>
+        <v>828116</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2658,19 +2646,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F79" s="18">
-        <v>43200</v>
+        <v>33125</v>
       </c>
       <c r="G79" s="18">
-        <v>1080000</v>
+        <v>828116</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2681,13 +2669,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="F80" s="18">
         <v>43200</v>
@@ -2704,19 +2692,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="F81" s="18">
-        <v>43200</v>
+        <v>33125</v>
       </c>
       <c r="G81" s="18">
-        <v>1080000</v>
+        <v>828116</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2727,19 +2715,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="F82" s="18">
-        <v>43200</v>
+        <v>33125</v>
       </c>
       <c r="G82" s="18">
-        <v>1080000</v>
+        <v>828116</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2750,13 +2738,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="F83" s="18">
         <v>43200</v>
@@ -2773,19 +2761,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="F84" s="18">
-        <v>43200</v>
+        <v>33125</v>
       </c>
       <c r="G84" s="18">
-        <v>1080000</v>
+        <v>828116</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2796,19 +2784,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="F85" s="18">
-        <v>48000</v>
+        <v>80000</v>
       </c>
       <c r="G85" s="18">
-        <v>1200000</v>
+        <v>2000000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2819,19 +2807,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="F86" s="18">
-        <v>48000</v>
+        <v>33125</v>
       </c>
       <c r="G86" s="18">
-        <v>1200000</v>
+        <v>828116</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2842,19 +2830,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="F87" s="18">
-        <v>1600</v>
+        <v>33125</v>
       </c>
       <c r="G87" s="18">
-        <v>1200000</v>
+        <v>828116</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2865,19 +2853,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="F88" s="18">
-        <v>20979</v>
+        <v>43200</v>
       </c>
       <c r="G88" s="18">
-        <v>737717</v>
+        <v>1080000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2888,19 +2876,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="F89" s="18">
         <v>33125</v>
       </c>
       <c r="G89" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2911,19 +2899,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F90" s="18">
         <v>33125</v>
       </c>
       <c r="G90" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2934,19 +2922,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="F91" s="18">
-        <v>33125</v>
+        <v>43200</v>
       </c>
       <c r="G91" s="18">
-        <v>737717</v>
+        <v>1080000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2957,19 +2945,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="F92" s="18">
         <v>33125</v>
       </c>
       <c r="G92" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2980,19 +2968,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="F93" s="18">
-        <v>33125</v>
+        <v>80000</v>
       </c>
       <c r="G93" s="18">
-        <v>737717</v>
+        <v>2000000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3003,19 +2991,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="F94" s="18">
         <v>33125</v>
       </c>
       <c r="G94" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3026,19 +3014,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="F95" s="18">
         <v>33125</v>
       </c>
       <c r="G95" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3055,13 +3043,13 @@
         <v>50</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F96" s="18">
-        <v>50667</v>
+        <v>43200</v>
       </c>
       <c r="G96" s="18">
-        <v>2000000</v>
+        <v>1080000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3072,19 +3060,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="F97" s="18">
-        <v>80000</v>
+        <v>33125</v>
       </c>
       <c r="G97" s="18">
-        <v>2000000</v>
+        <v>828116</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3095,19 +3083,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="F98" s="18">
-        <v>80000</v>
+        <v>33125</v>
       </c>
       <c r="G98" s="18">
-        <v>2000000</v>
+        <v>828116</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3118,19 +3106,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="F99" s="18">
-        <v>80000</v>
+        <v>43200</v>
       </c>
       <c r="G99" s="18">
-        <v>2000000</v>
+        <v>1080000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3141,19 +3129,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="F100" s="18">
-        <v>80000</v>
+        <v>33125</v>
       </c>
       <c r="G100" s="18">
-        <v>2000000</v>
+        <v>828116</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3164,13 +3152,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="F101" s="18">
         <v>80000</v>
@@ -3187,19 +3175,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="F102" s="18">
-        <v>80000</v>
+        <v>33125</v>
       </c>
       <c r="G102" s="18">
-        <v>2000000</v>
+        <v>828116</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3210,19 +3198,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="F103" s="18">
-        <v>80000</v>
+        <v>33125</v>
       </c>
       <c r="G103" s="18">
-        <v>2000000</v>
+        <v>828116</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3239,13 +3227,13 @@
         <v>50</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="F104" s="18">
-        <v>80000</v>
+        <v>43200</v>
       </c>
       <c r="G104" s="18">
-        <v>2000000</v>
+        <v>1080000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3256,19 +3244,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="F105" s="18">
-        <v>80000</v>
+        <v>33125</v>
       </c>
       <c r="G105" s="18">
-        <v>2000000</v>
+        <v>828116</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3279,19 +3267,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F106" s="18">
-        <v>80000</v>
+        <v>33125</v>
       </c>
       <c r="G106" s="18">
-        <v>2000000</v>
+        <v>828116</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3302,19 +3290,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="F107" s="18">
-        <v>80000</v>
+        <v>43200</v>
       </c>
       <c r="G107" s="18">
-        <v>2000000</v>
+        <v>1080000</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3325,19 +3313,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="F108" s="18">
-        <v>80000</v>
+        <v>33125</v>
       </c>
       <c r="G108" s="18">
-        <v>2000000</v>
+        <v>828116</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3348,13 +3336,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="F109" s="18">
         <v>80000</v>
@@ -3371,19 +3359,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="F110" s="18">
-        <v>80000</v>
+        <v>20979</v>
       </c>
       <c r="G110" s="18">
-        <v>2000000</v>
+        <v>828116</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3394,19 +3382,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="F111" s="18">
-        <v>80000</v>
+        <v>20979</v>
       </c>
       <c r="G111" s="18">
-        <v>2000000</v>
+        <v>828116</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3423,13 +3411,13 @@
         <v>50</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F112" s="18">
-        <v>80000</v>
+        <v>27360</v>
       </c>
       <c r="G112" s="18">
-        <v>2000000</v>
+        <v>1080000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3440,19 +3428,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="F113" s="18">
-        <v>80000</v>
+        <v>20979</v>
       </c>
       <c r="G113" s="18">
-        <v>2000000</v>
+        <v>828116</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3463,19 +3451,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F114" s="18">
-        <v>80000</v>
+        <v>20979</v>
       </c>
       <c r="G114" s="18">
-        <v>2000000</v>
+        <v>828116</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3486,19 +3474,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F115" s="18">
-        <v>80000</v>
+        <v>27360</v>
       </c>
       <c r="G115" s="18">
-        <v>2000000</v>
+        <v>1080000</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3509,443 +3497,75 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F116" s="18">
-        <v>80000</v>
+        <v>20979</v>
       </c>
       <c r="G116" s="18">
-        <v>2000000</v>
+        <v>828116</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
       <c r="J116" s="20"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B117" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D117" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E117" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F117" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G117" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="20"/>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B118" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D118" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E118" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F118" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G118" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="20"/>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B119" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D119" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E119" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F119" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G119" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="20"/>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B120" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D120" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E120" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F120" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G120" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="20"/>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B121" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D121" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E121" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F121" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G121" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="20"/>
+      <c r="B117" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D117" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F117" s="24">
+        <v>50667</v>
+      </c>
+      <c r="G117" s="24">
+        <v>2000000</v>
+      </c>
+      <c r="H117" s="25"/>
+      <c r="I117" s="25"/>
+      <c r="J117" s="26"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B122" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D122" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E122" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F122" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G122" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="20"/>
+      <c r="B122" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C122" s="32"/>
+      <c r="H122" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B123" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C123" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D123" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E123" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F123" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G123" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="20"/>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B124" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C124" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D124" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E124" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F124" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G124" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="20"/>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B125" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C125" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D125" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E125" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F125" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G125" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="20"/>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B126" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C126" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D126" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E126" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F126" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G126" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="20"/>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B127" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D127" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E127" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F127" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G127" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="20"/>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B128" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C128" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D128" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E128" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F128" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G128" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="20"/>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B129" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C129" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D129" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E129" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F129" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G129" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="20"/>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B130" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C130" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D130" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E130" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F130" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G130" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="20"/>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B131" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C131" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D131" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E131" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F131" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G131" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="20"/>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B132" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D132" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E132" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F132" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G132" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="20"/>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B133" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D133" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E133" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F133" s="24">
-        <v>16000</v>
-      </c>
-      <c r="G133" s="24">
-        <v>828116</v>
-      </c>
-      <c r="H133" s="25"/>
-      <c r="I133" s="25"/>
-      <c r="J133" s="26"/>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B138" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C138" s="32"/>
-      <c r="H138" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I138" s="1"/>
-      <c r="J138" s="1"/>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B139" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C139" s="32"/>
-      <c r="H139" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I139" s="1"/>
-      <c r="J139" s="1"/>
+      <c r="B123" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C123" s="32"/>
+      <c r="H123" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="H139:J139"/>
-    <mergeCell ref="H138:J138"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="H123:J123"/>
+    <mergeCell ref="H122:J122"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
